--- a/Traditional CV/MinMaxScaler/T_EveryNetwork_MMS_AllFeatures.xlsx
+++ b/Traditional CV/MinMaxScaler/T_EveryNetwork_MMS_AllFeatures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicalvarez/Documents/projectcode/cs791/Traditional CV/MinMaxScaler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88017F5D-5253-BB4A-90FB-4C86F873E8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3AA4075-53C8-FD4F-83B8-F8690559A55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="16960"/>
+    <workbookView xWindow="13600" yWindow="2680" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="EveryFileIndividual_Untuned_Mod" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,19 @@
     <t>b100d100.csv</t>
   </si>
   <si>
-    <t>RandomForestClassifier()</t>
+    <t>RandomForestClassifier</t>
   </si>
   <si>
-    <t>GradientBoostingClassifier()</t>
+    <t>XGBClassifier</t>
   </si>
   <si>
-    <t>DecisionTreeClassifier()</t>
+    <t>DecisionTreeClassifier</t>
   </si>
   <si>
-    <t>MLPClassifier()</t>
+    <t>MLPClassifier</t>
   </si>
   <si>
-    <t>LinearSVC()</t>
+    <t>LinearSVC</t>
   </si>
   <si>
     <t>b5000d10.csv</t>
@@ -80,9 +80,6 @@
     <t>dt</t>
   </si>
   <si>
-    <t>gb</t>
-  </si>
-  <si>
     <t>svc</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>rf</t>
+  </si>
+  <si>
+    <t>xgb</t>
   </si>
 </sst>
 </file>
@@ -933,7 +933,7 @@
   <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,21 +946,21 @@
         <v>3</v>
       </c>
       <c r="C1">
-        <v>0.97185185185185097</v>
+        <v>0.96814814814814798</v>
       </c>
       <c r="D1">
-        <v>9.6153740635163895E-3</v>
+        <v>9.3256876385290205E-3</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
       <c r="G1">
         <f>AVERAGE(C1:C45)</f>
-        <v>0.98247736625514359</v>
+        <v>0.98242798353909444</v>
       </c>
       <c r="H1">
         <f>AVERAGE(D1:D45)</f>
-        <v>9.3504080963815878E-3</v>
+        <v>8.8784420212456583E-3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -971,21 +971,21 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.99703703703703594</v>
+        <v>0.99629629629629601</v>
       </c>
       <c r="D2">
-        <v>4.1573970964154704E-3</v>
+        <v>3.8844772154449799E-3</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2">
         <f>AVERAGE(C46:C90)</f>
-        <v>0.98939917695473212</v>
+        <v>0.96111111111111081</v>
       </c>
       <c r="H2">
         <f>AVERAGE(D46:D90)</f>
-        <v>7.0273106600948002E-3</v>
+        <v>1.6856614481368767E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -996,21 +996,21 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.98370370370370297</v>
+        <v>0.98481481481481403</v>
       </c>
       <c r="D3">
-        <v>8.8734433708970006E-3</v>
+        <v>7.3516419412144899E-3</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3">
         <f>AVERAGE(C91:C135)</f>
-        <v>0.96263374485596653</v>
+        <v>0.97601646090534933</v>
       </c>
       <c r="H3">
         <f>AVERAGE(D91:D135)</f>
-        <v>1.6730449388702544E-2</v>
+        <v>1.2398776507349026E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1021,21 +1021,21 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.96037037037036999</v>
+        <v>0.96370370370370295</v>
       </c>
       <c r="D4">
-        <v>1.18054647781549E-2</v>
+        <v>1.91950496590369E-2</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4">
         <f>AVERAGE(C136:C180)</f>
-        <v>0.97502880658436186</v>
+        <v>0.98533333333333295</v>
       </c>
       <c r="H4">
         <f>AVERAGE(D136:D180)</f>
-        <v>1.2409790214339404E-2</v>
+        <v>8.7334093654205802E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1046,21 +1046,21 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.99074074074074003</v>
+        <v>0.99</v>
       </c>
       <c r="D5">
-        <v>6.41500299099583E-3</v>
+        <v>5.5678875475455303E-3</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5">
         <f>AVERAGE(C181:C225)</f>
-        <v>0.98521810699588408</v>
+        <v>0.99053497942386803</v>
       </c>
       <c r="H5">
         <f>AVERAGE(D181:D225)</f>
-        <v>8.7777475359406623E-3</v>
+        <v>6.8178550256341132E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1071,10 +1071,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.99740740740740697</v>
+        <v>0.99814814814814801</v>
       </c>
       <c r="D6">
-        <v>9.0721842325298897E-4</v>
+        <v>1.65634664999982E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1085,10 +1085,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.99481481481481404</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D7">
-        <v>4.2873470010334098E-3</v>
+        <v>5.2378280087892401E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1099,10 +1099,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0.99037037037037001</v>
+        <v>0.98888888888888804</v>
       </c>
       <c r="D8">
-        <v>4.7430549906909902E-3</v>
+        <v>3.8844772154450098E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1113,10 +1113,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.95777777777777695</v>
+        <v>0.95703703703703702</v>
       </c>
       <c r="D9">
-        <v>3.0370370370370301E-2</v>
+        <v>2.1703830109605301E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1127,10 +1127,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.97037037037036999</v>
+        <v>0.96925925925925904</v>
       </c>
       <c r="D10">
-        <v>1.02773606855641E-2</v>
+        <v>6.3720927904019403E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1141,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.99888888888888805</v>
+        <v>0.99555555555555497</v>
       </c>
       <c r="D11">
-        <v>1.4814814814814599E-3</v>
+        <v>4.6259244432580596E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1155,10 +1155,10 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.98592592592592498</v>
+        <v>0.98444444444444401</v>
       </c>
       <c r="D12">
-        <v>7.5541029831003997E-3</v>
+        <v>9.2666637060716903E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1169,10 +1169,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.95777777777777695</v>
+        <v>0.96222222222222198</v>
       </c>
       <c r="D13">
-        <v>1.7505633034217E-2</v>
+        <v>1.7157384921334E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1183,10 +1183,10 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>0.98962962962962897</v>
+        <v>0.98925925925925895</v>
       </c>
       <c r="D14">
-        <v>6.8892871250882497E-3</v>
+        <v>6.4576280645046898E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1197,10 +1197,10 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0.99740740740740697</v>
+        <v>0.99814814814814801</v>
       </c>
       <c r="D15">
-        <v>1.48148148148145E-3</v>
+        <v>1.65634664999982E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1211,10 +1211,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.994074074074074</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D16">
-        <v>5.1586623248829899E-3</v>
+        <v>4.2228719448116096E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1225,10 +1225,10 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.98962962962962897</v>
+        <v>0.99111111111111105</v>
       </c>
       <c r="D17">
-        <v>4.9135182079339196E-3</v>
+        <v>2.72165526975908E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1239,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.96148148148148105</v>
+        <v>0.95888888888888801</v>
       </c>
       <c r="D18">
-        <v>2.7100382414706199E-2</v>
+        <v>2.2662308949301199E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1253,10 +1253,10 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.96925925925925904</v>
+        <v>0.96814814814814798</v>
       </c>
       <c r="D19">
-        <v>1.13915233327627E-2</v>
+        <v>9.8270364158678392E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1267,10 +1267,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0.99925925925925896</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D20">
-        <v>9.0721842325304297E-4</v>
+        <v>7.4994284190061404E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1281,10 +1281,10 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0.98259259259259202</v>
+        <v>0.98481481481481403</v>
       </c>
       <c r="D21">
-        <v>8.8888888888888993E-3</v>
+        <v>8.9504044248848499E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1295,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.95777777777777795</v>
+        <v>0.96333333333333304</v>
       </c>
       <c r="D22">
-        <v>1.75056330342169E-2</v>
+        <v>1.75838184747691E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1309,10 +1309,10 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0.99074074074074003</v>
+        <v>0.99111111111111005</v>
       </c>
       <c r="D23">
-        <v>6.3071801355282899E-3</v>
+        <v>5.6655772373253198E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1323,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>0.99740740740740697</v>
+        <v>0.99814814814814801</v>
       </c>
       <c r="D24">
-        <v>1.48148148148145E-3</v>
+        <v>1.65634664999982E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1337,10 +1337,10 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.99555555555555497</v>
+        <v>0.99518518518518495</v>
       </c>
       <c r="D25">
-        <v>2.7715980642769901E-3</v>
+        <v>3.8131963485137201E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1351,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>0.99111111111111105</v>
+        <v>0.98777777777777698</v>
       </c>
       <c r="D26">
-        <v>4.1242698983926301E-3</v>
+        <v>4.9135182079339196E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1365,10 +1365,10 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>0.95703703703703702</v>
+        <v>0.95518518518518503</v>
       </c>
       <c r="D27">
-        <v>2.8769935534723599E-2</v>
+        <v>2.5456059670280799E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1379,10 +1379,10 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0.97</v>
+        <v>0.968518518518518</v>
       </c>
       <c r="D28">
-        <v>1.0304020550550699E-2</v>
+        <v>7.4994284190061404E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1393,10 +1393,10 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0.99740740740740697</v>
+        <v>0.99518518518518495</v>
       </c>
       <c r="D29">
-        <v>4.3192236258113104E-3</v>
+        <v>6.04055793714819E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1407,10 +1407,10 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>0.98370370370370297</v>
+        <v>0.98555555555555496</v>
       </c>
       <c r="D30">
-        <v>8.2318928781084707E-3</v>
+        <v>9.3989463262588897E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1421,10 +1421,10 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>0.95740740740740704</v>
+        <v>0.96370370370370295</v>
       </c>
       <c r="D31">
-        <v>2.1468706290651E-2</v>
+        <v>1.6084482037487701E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1435,10 +1435,10 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>0.98962962962962897</v>
+        <v>0.99074074074074003</v>
       </c>
       <c r="D32">
-        <v>6.8892871250882497E-3</v>
+        <v>6.3071801355282899E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1463,10 +1463,10 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>0.99518518518518495</v>
+        <v>0.994074074074074</v>
       </c>
       <c r="D34">
-        <v>3.8131963485137201E-3</v>
+        <v>4.5961754244410302E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1477,10 +1477,10 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0.98777777777777698</v>
+        <v>0.99074074074074003</v>
       </c>
       <c r="D35">
-        <v>4.7718884173055904E-3</v>
+        <v>3.3126932999996898E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1491,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>0.95814814814814797</v>
+        <v>0.95962962962962906</v>
       </c>
       <c r="D36">
-        <v>2.7557148500352902E-2</v>
+        <v>2.2449455497321E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0.97296296296296203</v>
+        <v>0.96962962962962895</v>
       </c>
       <c r="D37">
-        <v>9.7710414505725405E-3</v>
+        <v>9.1923508488821193E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1519,10 +1519,10 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>0.99777777777777699</v>
+        <v>0.99518518518518495</v>
       </c>
       <c r="D38">
-        <v>3.5908739684565498E-3</v>
+        <v>5.3158148497804902E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1533,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0.98518518518518505</v>
+        <v>0.98555555555555496</v>
       </c>
       <c r="D39">
-        <v>6.7281118979944004E-3</v>
+        <v>9.5437768346111999E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1547,10 +1547,10 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>0.95851851851851799</v>
+        <v>0.962592592592592</v>
       </c>
       <c r="D40">
-        <v>1.83174266946344E-2</v>
+        <v>1.6948238797996298E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1561,10 +1561,10 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>0.98962962962962897</v>
+        <v>0.99</v>
       </c>
       <c r="D41">
-        <v>7.2766232238475996E-3</v>
+        <v>6.2635313056621502E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1592,7 +1592,7 @@
         <v>0.99481481481481404</v>
       </c>
       <c r="D43">
-        <v>4.2873470010334098E-3</v>
+        <v>3.7770514915502198E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1603,10 +1603,10 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>0.98851851851851802</v>
+        <v>0.98703703703703705</v>
       </c>
       <c r="D44">
-        <v>4.2873470010334298E-3</v>
+        <v>5.8560697410525503E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1617,10 +1617,10 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>0.95925925925925903</v>
+        <v>0.95777777777777695</v>
       </c>
       <c r="D45">
-        <v>3.06983196816327E-2</v>
+        <v>2.5857051371417802E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1628,13 +1628,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="D46">
-        <v>1.3476596591600099E-2</v>
+        <v>2.05747324627128E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1642,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>0.99925925925925896</v>
@@ -1656,13 +1656,13 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>0.99370370370370298</v>
+        <v>0.962592592592592</v>
       </c>
       <c r="D48">
-        <v>4.91351820793393E-3</v>
+        <v>2.9266290763167901E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1670,13 +1670,13 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>0.97703703703703704</v>
+        <v>0.91259259259259196</v>
       </c>
       <c r="D49">
-        <v>1.16298655319315E-2</v>
+        <v>2.2296173249322E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1684,13 +1684,13 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>0.99333333333333296</v>
+        <v>0.986296296296296</v>
       </c>
       <c r="D50">
-        <v>3.4346735168502502E-3</v>
+        <v>1.2592592592592501E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1698,13 +1698,13 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>0.99703703703703705</v>
+        <v>0.99925925925925896</v>
       </c>
       <c r="D51">
-        <v>3.4346735168502701E-3</v>
+        <v>1.4814814814814599E-3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1712,13 +1712,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>0.99666666666666603</v>
+        <v>0.99740740740740697</v>
       </c>
       <c r="D52">
-        <v>3.9544734266782396E-3</v>
+        <v>2.7715980642769901E-3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1726,13 +1726,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>0.99444444444444402</v>
+        <v>0.93666666666666598</v>
       </c>
       <c r="D53">
-        <v>2.61891400439463E-3</v>
+        <v>3.0996260670974302E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1740,13 +1740,13 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>0.97185185185185097</v>
+        <v>0.91592592592592503</v>
       </c>
       <c r="D54">
-        <v>1.9647092162777501E-2</v>
+        <v>3.0823182624537999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1754,13 +1754,13 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>0.98037037037037</v>
+        <v>0.94</v>
       </c>
       <c r="D55">
-        <v>1.3384674814513E-2</v>
+        <v>2.05747324627128E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1768,7 +1768,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>0.99925925925925896</v>
@@ -1782,13 +1782,13 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>0.994074074074074</v>
+        <v>0.962592592592592</v>
       </c>
       <c r="D57">
-        <v>4.8855207252862702E-3</v>
+        <v>2.9266290763167901E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1796,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>0.97777777777777697</v>
+        <v>0.91259259259259196</v>
       </c>
       <c r="D58">
-        <v>1.1535119631405501E-2</v>
+        <v>2.2296173249322E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1810,13 +1810,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C59">
-        <v>0.99333333333333296</v>
+        <v>0.986296296296296</v>
       </c>
       <c r="D59">
-        <v>3.4346735168502502E-3</v>
+        <v>1.2592592592592501E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1824,13 +1824,13 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>0.99703703703703705</v>
+        <v>0.99925925925925896</v>
       </c>
       <c r="D60">
-        <v>3.4346735168502701E-3</v>
+        <v>1.4814814814814599E-3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1838,13 +1838,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>0.99666666666666603</v>
+        <v>0.99740740740740697</v>
       </c>
       <c r="D61">
-        <v>3.9544734266782396E-3</v>
+        <v>2.7715980642769901E-3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1852,13 +1852,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C62">
-        <v>0.99444444444444402</v>
+        <v>0.93666666666666598</v>
       </c>
       <c r="D62">
-        <v>2.61891400439463E-3</v>
+        <v>3.0996260670974302E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1866,13 +1866,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C63">
-        <v>0.97222222222222199</v>
+        <v>0.91592592592592503</v>
       </c>
       <c r="D63">
-        <v>1.9598157859737699E-2</v>
+        <v>3.0823182624537999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1880,13 +1880,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>0.98148148148148096</v>
+        <v>0.94</v>
       </c>
       <c r="D64">
-        <v>1.1712139482105E-2</v>
+        <v>2.05747324627128E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1894,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>0.99925925925925896</v>
@@ -1908,13 +1908,13 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66">
-        <v>0.994074074074074</v>
+        <v>0.962592592592592</v>
       </c>
       <c r="D66">
-        <v>4.8855207252862702E-3</v>
+        <v>2.9266290763167901E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1922,13 +1922,13 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>0.97703703703703704</v>
+        <v>0.91259259259259196</v>
       </c>
       <c r="D67">
-        <v>1.16298655319315E-2</v>
+        <v>2.2296173249322E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1936,13 +1936,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C68">
-        <v>0.99296296296296205</v>
+        <v>0.986296296296296</v>
       </c>
       <c r="D68">
-        <v>3.5908739684565399E-3</v>
+        <v>1.2592592592592501E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1950,13 +1950,13 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>0.99703703703703705</v>
+        <v>0.99925925925925896</v>
       </c>
       <c r="D69">
-        <v>3.4346735168502701E-3</v>
+        <v>1.4814814814814599E-3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1964,13 +1964,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>0.99666666666666603</v>
+        <v>0.99740740740740697</v>
       </c>
       <c r="D70">
-        <v>3.9544734266782396E-3</v>
+        <v>2.7715980642769901E-3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1978,13 +1978,13 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>0.99444444444444402</v>
+        <v>0.93666666666666598</v>
       </c>
       <c r="D71">
-        <v>2.61891400439463E-3</v>
+        <v>3.0996260670974302E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1992,13 +1992,13 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>0.97185185185185097</v>
+        <v>0.91592592592592503</v>
       </c>
       <c r="D72">
-        <v>1.9647092162777501E-2</v>
+        <v>3.0823182624537999E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C73">
-        <v>0.98074074074074002</v>
+        <v>0.94</v>
       </c>
       <c r="D73">
-        <v>1.2372809695177799E-2</v>
+        <v>2.05747324627128E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2020,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C74">
         <v>0.99925925925925896</v>
@@ -2034,13 +2034,13 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C75">
-        <v>0.99444444444444402</v>
+        <v>0.962592592592592</v>
       </c>
       <c r="D75">
-        <v>4.9690399499995397E-3</v>
+        <v>2.9266290763167901E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2048,13 +2048,13 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>0.97777777777777697</v>
+        <v>0.91259259259259196</v>
       </c>
       <c r="D76">
-        <v>1.1535119631405501E-2</v>
+        <v>2.2296173249322E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2062,13 +2062,13 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>0.99333333333333296</v>
+        <v>0.986296296296296</v>
       </c>
       <c r="D77">
-        <v>3.4346735168502502E-3</v>
+        <v>1.2592592592592501E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2076,13 +2076,13 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C78">
-        <v>0.99703703703703705</v>
+        <v>0.99925925925925896</v>
       </c>
       <c r="D78">
-        <v>3.4346735168502701E-3</v>
+        <v>1.4814814814814599E-3</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2090,13 +2090,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C79">
-        <v>0.99666666666666603</v>
+        <v>0.99740740740740697</v>
       </c>
       <c r="D79">
-        <v>3.9544734266782396E-3</v>
+        <v>2.7715980642769901E-3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2104,13 +2104,13 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C80">
-        <v>0.99444444444444402</v>
+        <v>0.93666666666666598</v>
       </c>
       <c r="D80">
-        <v>2.61891400439463E-3</v>
+        <v>3.0996260670974302E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2118,13 +2118,13 @@
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C81">
-        <v>0.97111111111111104</v>
+        <v>0.91592592592592503</v>
       </c>
       <c r="D81">
-        <v>2.0170738969170501E-2</v>
+        <v>3.0823182624537999E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <v>0.98148148148148096</v>
+        <v>0.94</v>
       </c>
       <c r="D82">
-        <v>1.1712139482105E-2</v>
+        <v>2.05747324627128E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2146,7 +2146,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C83">
         <v>0.99925925925925896</v>
@@ -2160,13 +2160,13 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>0.994074074074074</v>
+        <v>0.962592592592592</v>
       </c>
       <c r="D84">
-        <v>4.8855207252862702E-3</v>
+        <v>2.9266290763167901E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2174,13 +2174,13 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>0.97703703703703704</v>
+        <v>0.91259259259259196</v>
       </c>
       <c r="D85">
-        <v>1.16298655319315E-2</v>
+        <v>2.2296173249322E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2188,13 +2188,13 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>0.99333333333333296</v>
+        <v>0.986296296296296</v>
       </c>
       <c r="D86">
-        <v>3.4346735168502502E-3</v>
+        <v>1.2592592592592501E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2202,13 +2202,13 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>0.99703703703703705</v>
+        <v>0.99925925925925896</v>
       </c>
       <c r="D87">
-        <v>3.4346735168502701E-3</v>
+        <v>1.4814814814814599E-3</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2216,13 +2216,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>0.99666666666666603</v>
+        <v>0.99740740740740697</v>
       </c>
       <c r="D88">
-        <v>3.9544734266782396E-3</v>
+        <v>2.7715980642769901E-3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2230,13 +2230,13 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>0.99444444444444402</v>
+        <v>0.93666666666666598</v>
       </c>
       <c r="D89">
-        <v>2.61891400439463E-3</v>
+        <v>3.0996260670974302E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2244,13 +2244,13 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>0.97148148148148095</v>
+        <v>0.91592592592592503</v>
       </c>
       <c r="D90">
-        <v>2.01026174001658E-2</v>
+        <v>3.0823182624537999E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>0.94222222222222196</v>
+        <v>0.96777777777777696</v>
       </c>
       <c r="D91">
-        <v>2.0997093011938299E-2</v>
+        <v>1.22053755950252E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2272,10 +2272,10 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.99888888888888805</v>
+        <v>0.99925925925925896</v>
       </c>
       <c r="D92">
         <v>1.4814814814814599E-3</v>
@@ -2286,13 +2286,13 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>0.96518518518518504</v>
+        <v>0.98481481481481403</v>
       </c>
       <c r="D93">
-        <v>2.7651565118414899E-2</v>
+        <v>1.15588789143164E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2300,13 +2300,13 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>0.92111111111111099</v>
+        <v>0.93407407407407395</v>
       </c>
       <c r="D94">
-        <v>2.6594552697801799E-2</v>
+        <v>2.1068833560485702E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2314,13 +2314,13 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>0.98518518518518505</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D95">
-        <v>1.30945700219731E-2</v>
+        <v>5.44331053951816E-3</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2328,10 +2328,10 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>0.99925925925925896</v>
+        <v>0.99888888888888805</v>
       </c>
       <c r="D96">
         <v>1.4814814814814599E-3</v>
@@ -2342,13 +2342,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>0.99703703703703705</v>
+        <v>0.99740740740740697</v>
       </c>
       <c r="D97">
-        <v>2.7715980642769901E-3</v>
+        <v>2.5119740678241601E-3</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2356,13 +2356,13 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>0.93370370370370304</v>
+        <v>0.962592592592592</v>
       </c>
       <c r="D98">
-        <v>2.5857051371417802E-2</v>
+        <v>1.9577148572448098E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2370,13 +2370,13 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>0.92111111111111099</v>
+        <v>0.93740740740740702</v>
       </c>
       <c r="D99">
-        <v>3.0644651249537101E-2</v>
+        <v>2.8746085795455099E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2384,13 +2384,13 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100">
-        <v>0.94222222222222196</v>
+        <v>0.968518518518518</v>
       </c>
       <c r="D100">
-        <v>2.0997093011938299E-2</v>
+        <v>1.6522005943107699E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2398,10 +2398,10 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>0.99888888888888805</v>
+        <v>0.99925925925925896</v>
       </c>
       <c r="D101">
         <v>1.4814814814814599E-3</v>
@@ -2412,13 +2412,13 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>0.96518518518518504</v>
+        <v>0.98481481481481403</v>
       </c>
       <c r="D102">
-        <v>2.7651565118414899E-2</v>
+        <v>1.13190420666193E-2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2426,13 +2426,13 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>0.92111111111111099</v>
+        <v>0.94</v>
       </c>
       <c r="D103">
-        <v>2.6594552697801799E-2</v>
+        <v>1.6915832958028499E-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2440,13 +2440,13 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104">
-        <v>0.98518518518518505</v>
+        <v>0.99481481481481404</v>
       </c>
       <c r="D104">
-        <v>1.30945700219731E-2</v>
+        <v>4.5961754244410501E-3</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105">
         <v>0.99925925925925896</v>
@@ -2468,13 +2468,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>0.99703703703703705</v>
+        <v>0.99740740740740697</v>
       </c>
       <c r="D106">
-        <v>2.7715980642769901E-3</v>
+        <v>2.5119740678241601E-3</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2482,13 +2482,13 @@
         <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>0.93370370370370304</v>
+        <v>0.962592592592592</v>
       </c>
       <c r="D107">
-        <v>2.5857051371417802E-2</v>
+        <v>2.90546054184521E-2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2496,13 +2496,13 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>0.92111111111111099</v>
+        <v>0.93592592592592505</v>
       </c>
       <c r="D108">
-        <v>3.0644651249537101E-2</v>
+        <v>2.77308245145702E-2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2510,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>0.94222222222222196</v>
+        <v>0.96666666666666601</v>
       </c>
       <c r="D109">
-        <v>2.0997093011938299E-2</v>
+        <v>1.61864988025275E-2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2524,10 +2524,10 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>0.99888888888888805</v>
+        <v>0.99925925925925896</v>
       </c>
       <c r="D110">
         <v>1.4814814814814599E-3</v>
@@ -2538,13 +2538,13 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>0.96518518518518504</v>
+        <v>0.98296296296296204</v>
       </c>
       <c r="D111">
-        <v>2.7651565118414899E-2</v>
+        <v>1.5153535218873099E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2552,13 +2552,13 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>0.92111111111111099</v>
+        <v>0.93999999999999895</v>
       </c>
       <c r="D112">
-        <v>2.6594552697801799E-2</v>
+        <v>2.5353468281666399E-2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2566,13 +2566,13 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113">
-        <v>0.98518518518518505</v>
+        <v>0.994074074074074</v>
       </c>
       <c r="D113">
-        <v>1.30945700219731E-2</v>
+        <v>5.1586623248830099E-3</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2580,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114">
         <v>0.99925925925925896</v>
@@ -2594,13 +2594,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115">
-        <v>0.99703703703703705</v>
+        <v>0.99740740740740697</v>
       </c>
       <c r="D115">
-        <v>2.7715980642769901E-3</v>
+        <v>2.5119740678241601E-3</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2608,13 +2608,13 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>0.93370370370370304</v>
+        <v>0.96592592592592597</v>
       </c>
       <c r="D116">
-        <v>2.5857051371417802E-2</v>
+        <v>2.4388263160228602E-2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2622,13 +2622,13 @@
         <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>0.92111111111111099</v>
+        <v>0.94148148148148103</v>
       </c>
       <c r="D117">
-        <v>3.0644651249537101E-2</v>
+        <v>2.9735920461731902E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118">
-        <v>0.94222222222222196</v>
+        <v>0.96296296296296302</v>
       </c>
       <c r="D118">
-        <v>2.0997093011938299E-2</v>
+        <v>2.0218287502157199E-2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2650,10 +2650,10 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>0.99888888888888805</v>
+        <v>0.99925925925925896</v>
       </c>
       <c r="D119">
         <v>1.4814814814814599E-3</v>
@@ -2664,13 +2664,13 @@
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>0.96518518518518504</v>
+        <v>0.98555555555555496</v>
       </c>
       <c r="D120">
-        <v>2.7651565118414899E-2</v>
+        <v>1.27441855808039E-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2678,13 +2678,13 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>0.92111111111111099</v>
+        <v>0.94148148148148103</v>
       </c>
       <c r="D121">
-        <v>2.6594552697801799E-2</v>
+        <v>1.8466593870100498E-2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2692,13 +2692,13 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>0.98518518518518505</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D122">
-        <v>1.30945700219731E-2</v>
+        <v>5.1052032415149001E-3</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2706,7 +2706,7 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123">
         <v>0.99925925925925896</v>
@@ -2720,13 +2720,13 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124">
-        <v>0.99703703703703705</v>
+        <v>0.99740740740740697</v>
       </c>
       <c r="D124">
-        <v>2.7715980642769901E-3</v>
+        <v>2.5119740678241601E-3</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -2734,13 +2734,13 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>0.93370370370370304</v>
+        <v>0.96111111111111103</v>
       </c>
       <c r="D125">
-        <v>2.5857051371417802E-2</v>
+        <v>1.8144368465060502E-2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -2748,13 +2748,13 @@
         <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>0.92111111111111099</v>
+        <v>0.94259259259259198</v>
       </c>
       <c r="D126">
-        <v>3.0644651249537101E-2</v>
+        <v>3.0248173317178301E-2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2762,13 +2762,13 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127">
-        <v>0.94222222222222196</v>
+        <v>0.96444444444444399</v>
       </c>
       <c r="D127">
-        <v>2.0997093011938299E-2</v>
+        <v>1.5511401178794E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2776,10 +2776,10 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C128">
-        <v>0.99888888888888805</v>
+        <v>0.99925925925925896</v>
       </c>
       <c r="D128">
         <v>1.4814814814814599E-3</v>
@@ -2790,13 +2790,13 @@
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129">
-        <v>0.96518518518518504</v>
+        <v>0.98481481481481403</v>
       </c>
       <c r="D129">
-        <v>2.7651565118414899E-2</v>
+        <v>1.25270626113242E-2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -2804,13 +2804,13 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130">
-        <v>0.92111111111111099</v>
+        <v>0.94592592592592495</v>
       </c>
       <c r="D130">
-        <v>2.6594552697801799E-2</v>
+        <v>1.6538602638345199E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -2818,13 +2818,13 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C131">
-        <v>0.98518518518518505</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D131">
-        <v>1.30945700219731E-2</v>
+        <v>6.1530547132726604E-3</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -2832,7 +2832,7 @@
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C132">
         <v>0.99925925925925896</v>
@@ -2846,13 +2846,13 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C133">
-        <v>0.99703703703703705</v>
+        <v>0.99740740740740697</v>
       </c>
       <c r="D133">
-        <v>2.7715980642769901E-3</v>
+        <v>2.5119740678241601E-3</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -2860,13 +2860,13 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C134">
-        <v>0.93370370370370304</v>
+        <v>0.96666666666666601</v>
       </c>
       <c r="D134">
-        <v>2.5857051371417802E-2</v>
+        <v>2.4927879511798201E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -2874,13 +2874,13 @@
         <v>13</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135">
-        <v>0.92111111111111099</v>
+        <v>0.93962962962962904</v>
       </c>
       <c r="D135">
-        <v>3.0644651249537101E-2</v>
+        <v>2.9270977494043199E-2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2888,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>0.96185185185185096</v>
+        <v>0.97222222222222199</v>
       </c>
       <c r="D136">
-        <v>1.76305633117213E-2</v>
+        <v>1.5930231976004801E-2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -2902,13 +2902,13 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>0.99888888888888805</v>
+        <v>0.99851851851851803</v>
       </c>
       <c r="D137">
-        <v>2.2222222222222101E-3</v>
+        <v>1.3857990321384801E-3</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -2916,13 +2916,13 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>0.98111111111111104</v>
+        <v>0.98962962962962897</v>
       </c>
       <c r="D138">
-        <v>1.3271461383088099E-2</v>
+        <v>5.8090322745770603E-3</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -2930,13 +2930,13 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>0.93925925925925902</v>
+        <v>0.97518518518518504</v>
       </c>
       <c r="D139">
-        <v>2.4014170485107102E-2</v>
+        <v>1.32817933904008E-2</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -2944,13 +2944,13 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>0.99222222222222201</v>
+        <v>0.99148148148148096</v>
       </c>
       <c r="D140">
-        <v>6.4576280645047002E-3</v>
+        <v>5.0511784062910597E-3</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -2958,13 +2958,13 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>0.99925925925925896</v>
+        <v>0.99777777777777699</v>
       </c>
       <c r="D141">
-        <v>1.4814814814814599E-3</v>
+        <v>2.9629629629629602E-3</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -2972,13 +2972,13 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>0.99740740740740697</v>
+        <v>0.99703703703703594</v>
       </c>
       <c r="D142">
-        <v>2.5119740678241601E-3</v>
+        <v>3.0089031128281299E-3</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -2986,13 +2986,13 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>0.95703703703703602</v>
+        <v>0.98555555555555496</v>
       </c>
       <c r="D143">
-        <v>2.84100872752075E-2</v>
+        <v>6.8693470337005099E-3</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -3000,13 +3000,13 @@
         <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>0.94111111111111101</v>
+        <v>0.96111111111111103</v>
       </c>
       <c r="D144">
-        <v>2.58039458494079E-2</v>
+        <v>2.72417415532345E-2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -3014,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>0.96185185185185096</v>
+        <v>0.974444444444444</v>
       </c>
       <c r="D145">
-        <v>1.5071844406944999E-2</v>
+        <v>1.1379475182027501E-2</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -3028,13 +3028,13 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C146">
-        <v>0.99925925925925896</v>
+        <v>0.99777777777777699</v>
       </c>
       <c r="D146">
-        <v>1.4814814814814599E-3</v>
+        <v>2.15961181290565E-3</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -3042,13 +3042,13 @@
         <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C147">
-        <v>0.98074074074074002</v>
+        <v>0.98777777777777698</v>
       </c>
       <c r="D147">
-        <v>1.3688680453760199E-2</v>
+        <v>5.9259259259259204E-3</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -3056,13 +3056,13 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C148">
-        <v>0.93814814814814795</v>
+        <v>0.97185185185185097</v>
       </c>
       <c r="D148">
-        <v>2.1741718698428301E-2</v>
+        <v>1.4025256465749199E-2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -3070,13 +3070,13 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C149">
-        <v>0.994074074074074</v>
+        <v>0.99074074074074003</v>
       </c>
       <c r="D149">
-        <v>5.0239481356483297E-3</v>
+        <v>6.7281118979944203E-3</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -3084,13 +3084,13 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C150">
-        <v>0.99925925925925896</v>
+        <v>0.99814814814814801</v>
       </c>
       <c r="D150">
-        <v>1.4814814814814599E-3</v>
+        <v>1.65634664999982E-3</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -3098,13 +3098,13 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C151">
         <v>0.99740740740740697</v>
       </c>
       <c r="D151">
-        <v>2.5119740678241601E-3</v>
+        <v>1.88852574577508E-3</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -3112,13 +3112,13 @@
         <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>0.95407407407407396</v>
+        <v>0.98666666666666603</v>
       </c>
       <c r="D152">
-        <v>2.8722216252357401E-2</v>
+        <v>6.1307205026840299E-3</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -3126,13 +3126,13 @@
         <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>0.938888888888888</v>
+        <v>0.96370370370370295</v>
       </c>
       <c r="D153">
-        <v>2.5579698740491801E-2</v>
+        <v>2.4190601174530198E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -3140,13 +3140,13 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C154">
-        <v>0.96666666666666601</v>
+        <v>0.974444444444444</v>
       </c>
       <c r="D154">
-        <v>1.50445155641406E-2</v>
+        <v>1.5198729280506E-2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -3154,13 +3154,13 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C155">
-        <v>0.99888888888888805</v>
+        <v>0.99851851851851803</v>
       </c>
       <c r="D155">
-        <v>2.2222222222222101E-3</v>
+        <v>1.3857990321384801E-3</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -3168,13 +3168,13 @@
         <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>0.98111111111111104</v>
+        <v>0.988148148148148</v>
       </c>
       <c r="D156">
-        <v>1.3425606637327199E-2</v>
+        <v>6.5838477165300604E-3</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -3182,13 +3182,13 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C157">
-        <v>0.94185185185185105</v>
+        <v>0.97259259259259201</v>
       </c>
       <c r="D157">
-        <v>2.09054308024741E-2</v>
+        <v>1.3778574250176499E-2</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -3196,13 +3196,13 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C158">
-        <v>0.994074074074074</v>
+        <v>0.99222222222222201</v>
       </c>
       <c r="D158">
-        <v>5.1586623248830099E-3</v>
+        <v>5.5431961285539897E-3</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -3210,13 +3210,13 @@
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>0.99925925925925896</v>
+        <v>0.99851851851851803</v>
       </c>
       <c r="D159">
-        <v>1.4814814814814599E-3</v>
+        <v>2.15961181290566E-3</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -3224,13 +3224,13 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C160">
-        <v>0.99740740740740697</v>
+        <v>0.99592592592592499</v>
       </c>
       <c r="D160">
-        <v>2.5119740678241601E-3</v>
+        <v>2.9629629629629602E-3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -3238,13 +3238,13 @@
         <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>0.96592592592592597</v>
+        <v>0.98555555555555496</v>
       </c>
       <c r="D161">
-        <v>1.8979448852324301E-2</v>
+        <v>8.3968770731515999E-3</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -3252,13 +3252,13 @@
         <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>0.93629629629629596</v>
+        <v>0.96111111111111103</v>
       </c>
       <c r="D162">
-        <v>2.6361421702628399E-2</v>
+        <v>2.4145194093343099E-2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>0.95851851851851799</v>
+        <v>0.97407407407407398</v>
       </c>
       <c r="D163">
-        <v>2.0340044767030999E-2</v>
+        <v>1.3456223795988801E-2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -3280,13 +3280,13 @@
         <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>0.99925925925925896</v>
+        <v>0.99814814814814801</v>
       </c>
       <c r="D164">
-        <v>1.4814814814814599E-3</v>
+        <v>2.0286020648339399E-3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -3294,13 +3294,13 @@
         <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C165">
-        <v>0.98481481481481403</v>
+        <v>0.98962962962962897</v>
       </c>
       <c r="D165">
-        <v>1.16769502003217E-2</v>
+        <v>5.6897375910137903E-3</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -3308,13 +3308,13 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C166">
-        <v>0.95111111111111102</v>
+        <v>0.97037037037036999</v>
       </c>
       <c r="D166">
-        <v>2.10036250055671E-2</v>
+        <v>1.6522005943107699E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -3322,13 +3322,13 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C167">
-        <v>0.99185185185185099</v>
+        <v>0.99148148148148096</v>
       </c>
       <c r="D167">
-        <v>7.0856023961885298E-3</v>
+        <v>7.4627561776332901E-3</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -3336,13 +3336,13 @@
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>0.99925925925925896</v>
+        <v>0.99851851851851803</v>
       </c>
       <c r="D168">
-        <v>1.4814814814814599E-3</v>
+        <v>2.15961181290566E-3</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -3350,13 +3350,13 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C169">
-        <v>0.99740740740740697</v>
+        <v>0.99666666666666603</v>
       </c>
       <c r="D169">
-        <v>2.5119740678241601E-3</v>
+        <v>2.15961181290565E-3</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -3364,13 +3364,13 @@
         <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C170">
-        <v>0.96296296296296302</v>
+        <v>0.986296296296296</v>
       </c>
       <c r="D170">
-        <v>1.91019214195964E-2</v>
+        <v>6.47883543871696E-3</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -3378,13 +3378,13 @@
         <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C171">
-        <v>0.94185185185185105</v>
+        <v>0.96037037037036999</v>
       </c>
       <c r="D171">
-        <v>2.5136117779195701E-2</v>
+        <v>2.6439360440851399E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>0.96333333333333304</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="D172">
-        <v>1.48333217737043E-2</v>
+        <v>1.2989391049444601E-2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -3406,13 +3406,13 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C173">
-        <v>0.99888888888888805</v>
+        <v>0.99740740740740697</v>
       </c>
       <c r="D173">
-        <v>2.2222222222222101E-3</v>
+        <v>2.5119740678241601E-3</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -3420,13 +3420,13 @@
         <v>7</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C174">
-        <v>0.98296296296296304</v>
+        <v>0.98888888888888804</v>
       </c>
       <c r="D174">
-        <v>9.82703641586786E-3</v>
+        <v>6.0858061945018296E-3</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -3434,13 +3434,13 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>0.94629629629629597</v>
+        <v>0.97407407407407398</v>
       </c>
       <c r="D175">
-        <v>2.1436735005167001E-2</v>
+        <v>1.2450175047386301E-2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -3448,13 +3448,13 @@
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>0.99333333333333296</v>
+        <v>0.99074074074074003</v>
       </c>
       <c r="D176">
-        <v>6.2635313056621502E-3</v>
+        <v>6.1974816780302E-3</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -3462,13 +3462,13 @@
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C177">
-        <v>0.99925925925925896</v>
+        <v>0.99814814814814801</v>
       </c>
       <c r="D177">
-        <v>1.4814814814814599E-3</v>
+        <v>2.0286020648339399E-3</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -3476,13 +3476,13 @@
         <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C178">
-        <v>0.99740740740740697</v>
+        <v>0.99555555555555497</v>
       </c>
       <c r="D178">
-        <v>2.5119740678241601E-3</v>
+        <v>3.0089031128281499E-3</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -3490,13 +3490,13 @@
         <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C179">
-        <v>0.95370370370370305</v>
+        <v>0.98703703703703705</v>
       </c>
       <c r="D179">
-        <v>1.9280614940474599E-2</v>
+        <v>5.8560697410525503E-3</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -3504,13 +3504,13 @@
         <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C180">
-        <v>0.94074074074073999</v>
+        <v>0.962592592592592</v>
       </c>
       <c r="D180">
-        <v>2.7567102319893899E-2</v>
+        <v>2.3697915960068702E-2</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C181">
-        <v>0.97259259259259201</v>
+        <v>0.982222222222222</v>
       </c>
       <c r="D181">
-        <v>1.2744185580803801E-2</v>
+        <v>1.16298655319315E-2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -3532,7 +3532,7 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182">
         <v>0.99851851851851803</v>
@@ -3546,13 +3546,13 @@
         <v>7</v>
       </c>
       <c r="B183" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C183">
-        <v>0.98962962962962897</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D183">
-        <v>3.4346735168502601E-3</v>
+        <v>3.70370370370369E-3</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -3560,13 +3560,13 @@
         <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C184">
-        <v>0.97296296296296203</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D184">
-        <v>1.4703283882429001E-2</v>
+        <v>1.10492102890195E-2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -3574,13 +3574,13 @@
         <v>9</v>
       </c>
       <c r="B185" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C185">
-        <v>0.99111111111111105</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D185">
-        <v>4.2873470010334298E-3</v>
+        <v>3.3126932999996998E-3</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -3588,13 +3588,13 @@
         <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>0.99851851851851803</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D186">
-        <v>2.15961181290566E-3</v>
+        <v>3.4346735168502701E-3</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -3602,13 +3602,13 @@
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C187">
-        <v>0.99703703703703594</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D187">
-        <v>2.2222222222222001E-3</v>
+        <v>1.88852574577508E-3</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -3616,10 +3616,10 @@
         <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188">
-        <v>0.986296296296296</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D188">
         <v>4.7718884173055904E-3</v>
@@ -3630,13 +3630,13 @@
         <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C189">
-        <v>0.96148148148148105</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="D189">
-        <v>2.6434171674156199E-2</v>
+        <v>2.0184335693983198E-2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C190">
-        <v>0.97518518518518504</v>
+        <v>0.982222222222222</v>
       </c>
       <c r="D190">
-        <v>1.3125959367903201E-2</v>
+        <v>1.16298655319315E-2</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -3658,13 +3658,13 @@
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C191">
-        <v>0.99888888888888805</v>
+        <v>0.99851851851851803</v>
       </c>
       <c r="D191">
-        <v>1.4814814814814599E-3</v>
+        <v>1.3857990321384801E-3</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -3672,13 +3672,13 @@
         <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C192">
-        <v>0.98888888888888804</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D192">
-        <v>5.2378280087892401E-3</v>
+        <v>3.70370370370369E-3</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -3686,13 +3686,13 @@
         <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193">
-        <v>0.96925925925925904</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D193">
-        <v>1.8392161508052E-2</v>
+        <v>1.10492102890195E-2</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -3700,13 +3700,13 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194">
-        <v>0.99037037037037001</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D194">
-        <v>4.7430549906910197E-3</v>
+        <v>3.3126932999996998E-3</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -3714,13 +3714,13 @@
         <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195">
-        <v>0.99851851851851803</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D195">
-        <v>2.9629629629629602E-3</v>
+        <v>3.4346735168502701E-3</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -3728,13 +3728,13 @@
         <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C196">
-        <v>0.99777777777777699</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D196">
-        <v>2.15961181290565E-3</v>
+        <v>1.88852574577508E-3</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -3742,13 +3742,13 @@
         <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C197">
-        <v>0.986296296296296</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D197">
-        <v>6.58384771653005E-3</v>
+        <v>4.7718884173055904E-3</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -3756,13 +3756,13 @@
         <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198">
-        <v>0.96444444444444399</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="D198">
-        <v>2.4911365512296599E-2</v>
+        <v>2.0184335693983198E-2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -3770,13 +3770,13 @@
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C199">
-        <v>0.97259259259259201</v>
+        <v>0.982222222222222</v>
       </c>
       <c r="D199">
-        <v>1.4411167746921199E-2</v>
+        <v>1.16298655319315E-2</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -3784,7 +3784,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200">
         <v>0.99851851851851803</v>
@@ -3798,13 +3798,13 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201">
-        <v>0.98888888888888804</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D201">
-        <v>4.22287194481164E-3</v>
+        <v>3.70370370370369E-3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -3812,13 +3812,13 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202">
-        <v>0.97185185185185097</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D202">
-        <v>1.5990394922165099E-2</v>
+        <v>1.10492102890195E-2</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -3826,13 +3826,13 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C203">
-        <v>0.99185185185185198</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D203">
-        <v>5.0511784062910597E-3</v>
+        <v>3.3126932999996998E-3</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -3840,13 +3840,13 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204">
-        <v>0.99814814814814801</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D204">
-        <v>2.8688765527462301E-3</v>
+        <v>3.4346735168502701E-3</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -3854,13 +3854,13 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C205">
-        <v>0.99666666666666603</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D205">
-        <v>3.3945005147821001E-3</v>
+        <v>1.88852574577508E-3</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -3868,13 +3868,13 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C206">
-        <v>0.98333333333333295</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D206">
-        <v>1.0075163339804001E-2</v>
+        <v>4.7718884173055904E-3</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -3882,13 +3882,13 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C207">
-        <v>0.96185185185185096</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="D207">
-        <v>2.7357311574250899E-2</v>
+        <v>2.0184335693983198E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -3896,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C208">
-        <v>0.97518518518518504</v>
+        <v>0.982222222222222</v>
       </c>
       <c r="D208">
-        <v>1.27010579255424E-2</v>
+        <v>1.16298655319315E-2</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -3910,7 +3910,7 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C209">
         <v>0.99851851851851803</v>
@@ -3924,13 +3924,13 @@
         <v>7</v>
       </c>
       <c r="B210" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C210">
-        <v>0.99037037037037001</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D210">
-        <v>5.2899469841058196E-3</v>
+        <v>3.70370370370369E-3</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -3938,13 +3938,13 @@
         <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C211">
-        <v>0.97074074074074002</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D211">
-        <v>1.54671207539415E-2</v>
+        <v>1.10492102890195E-2</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -3952,13 +3952,13 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212">
-        <v>0.99222222222222201</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D212">
-        <v>3.7770514915502198E-3</v>
+        <v>3.3126932999996998E-3</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -3966,13 +3966,13 @@
         <v>10</v>
       </c>
       <c r="B213" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C213">
-        <v>0.99851851851851803</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D213">
-        <v>2.15961181290566E-3</v>
+        <v>3.4346735168502701E-3</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3980,13 +3980,13 @@
         <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C214">
-        <v>0.99703703703703594</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D214">
-        <v>2.5119740678241601E-3</v>
+        <v>1.88852574577508E-3</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -3994,13 +3994,13 @@
         <v>12</v>
       </c>
       <c r="B215" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C215">
-        <v>0.98703703703703705</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D215">
-        <v>5.1052032415149001E-3</v>
+        <v>4.7718884173055904E-3</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -4008,13 +4008,13 @@
         <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C216">
-        <v>0.96111111111111103</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="D216">
-        <v>2.7216552697590799E-2</v>
+        <v>2.0184335693983198E-2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="B217" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C217">
-        <v>0.97481481481481402</v>
+        <v>0.982222222222222</v>
       </c>
       <c r="D217">
-        <v>1.1978490095404601E-2</v>
+        <v>1.16298655319315E-2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -4036,13 +4036,13 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C218">
-        <v>0.99814814814814801</v>
+        <v>0.99851851851851803</v>
       </c>
       <c r="D218">
-        <v>1.65634664999982E-3</v>
+        <v>1.3857990321384801E-3</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -4050,13 +4050,13 @@
         <v>7</v>
       </c>
       <c r="B219" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C219">
-        <v>0.98962962962962897</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D219">
-        <v>4.9135182079339196E-3</v>
+        <v>3.70370370370369E-3</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -4064,13 +4064,13 @@
         <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C220">
-        <v>0.97</v>
+        <v>0.98148148148148096</v>
       </c>
       <c r="D220">
-        <v>1.7028983603811301E-2</v>
+        <v>1.10492102890195E-2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -4078,13 +4078,13 @@
         <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C221">
-        <v>0.99111111111111105</v>
+        <v>0.99444444444444402</v>
       </c>
       <c r="D221">
-        <v>6.1307205026840004E-3</v>
+        <v>3.3126932999996998E-3</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -4092,13 +4092,13 @@
         <v>10</v>
       </c>
       <c r="B222" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222">
-        <v>0.99777777777777699</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D222">
-        <v>2.72165526975908E-3</v>
+        <v>3.4346735168502701E-3</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -4106,13 +4106,13 @@
         <v>11</v>
       </c>
       <c r="B223" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C223">
-        <v>0.99666666666666603</v>
+        <v>0.99703703703703705</v>
       </c>
       <c r="D223">
-        <v>2.72165526975908E-3</v>
+        <v>1.88852574577508E-3</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -4120,13 +4120,13 @@
         <v>12</v>
       </c>
       <c r="B224" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C224">
-        <v>0.98555555555555496</v>
+        <v>0.99370370370370298</v>
       </c>
       <c r="D224">
-        <v>8.2318928781084603E-3</v>
+        <v>4.7718884173055904E-3</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -4134,13 +4134,13 @@
         <v>13</v>
       </c>
       <c r="B225" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C225">
-        <v>0.95888888888888801</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="D225">
-        <v>2.7502338097388099E-2</v>
+        <v>2.0184335693983198E-2</v>
       </c>
     </row>
   </sheetData>
